--- a/Assets/Sauce.xlsx
+++ b/Assets/Sauce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mingy\Desktop\Fall 22\428\Project\428.P2.Ming Yu Liew\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634CF62F-FDEF-432A-BB9C-5B2F4942A458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E603C7EB-428D-471C-8111-0599D9829C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DE391065-2D27-4856-9F68-3DC482099250}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Create</t>
   </si>
@@ -59,42 +59,27 @@
     <t>shoes</t>
   </si>
   <si>
-    <t>shirt</t>
-  </si>
-  <si>
     <t>manekineko</t>
   </si>
   <si>
     <t>football</t>
   </si>
   <si>
-    <t>football (us)</t>
-  </si>
-  <si>
     <t>basketball</t>
   </si>
   <si>
-    <t>maybe at basketball hoop for p3</t>
-  </si>
-  <si>
     <t>tennis</t>
   </si>
   <si>
     <t>golf</t>
   </si>
   <si>
-    <t>volleyball</t>
-  </si>
-  <si>
     <t>cap</t>
   </si>
   <si>
     <t>paddle</t>
   </si>
   <si>
-    <t>shuttle</t>
-  </si>
-  <si>
     <t>https://assetstore.unity.com/packages/3d/low-polygon-soccer-ball-84382</t>
   </si>
   <si>
@@ -116,27 +101,12 @@
     <t>https://www.cgtrader.com/free-3d-models/sports/equipment/free-basketball-ball</t>
   </si>
   <si>
-    <t>https://www.cgtrader.com/free-3d-models/sports/equipment/volleyball-ball--4</t>
-  </si>
-  <si>
-    <t>https://www.cgtrader.com/free-3d-models/sports/game/rugby-b8baffc4-8550-4ccf-9dca-f6736ae3ed9b</t>
-  </si>
-  <si>
     <t>https://www.cgtrader.com/free-3d-models/sports/toy/free-tennis-ball-951923a83597e7db3def99b660cf0fa3</t>
   </si>
   <si>
-    <t>https://www.cgtrader.com/free-3d-models/sports/equipment/shuttlecock-of-badminton</t>
-  </si>
-  <si>
-    <t>https://www.cgtrader.com/free-3d-models/sports/equipment/free-golf-ball</t>
-  </si>
-  <si>
     <t>boxing glove</t>
   </si>
   <si>
-    <t>https://www.cgtrader.com/free-3d-models/sports/equipment/tennis-racquet-d3a35a80-a64c-4134-8237-cf04669ddedc</t>
-  </si>
-  <si>
     <t>https://www.cgtrader.com/free-3d-models/character/clothing/low-poly-boxing-glove</t>
   </si>
   <si>
@@ -177,6 +147,21 @@
   </si>
   <si>
     <t>https://freesound.org/people/kathid/sounds/184478/</t>
+  </si>
+  <si>
+    <t>cash register</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GcM9nZrG6NY</t>
+  </si>
+  <si>
+    <t>shirt + pants</t>
+  </si>
+  <si>
+    <t>mannequin</t>
+  </si>
+  <si>
+    <t>sound</t>
   </si>
 </sst>
 </file>
@@ -539,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98336FF-6383-42C0-97A9-8E8FCAA8E2C0}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +537,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -560,15 +545,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -576,63 +561,63 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -640,126 +625,103 @@
         <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>32</v>
+      <c r="A16" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
       <c r="B18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>0</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>7</v>
+      <c r="A24" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
+      <c r="A25" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
+      <c r="A26" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A29" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -769,22 +731,21 @@
     <hyperlink ref="B3" r:id="rId3" xr:uid="{480DAB3D-63FC-416A-92FA-CADB5B43B498}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{6888A719-DF01-405B-9E9F-FDED28A25A62}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{DE6F150C-716E-4D9D-8B4F-9A0E1AFC270A}"/>
-    <hyperlink ref="B14" r:id="rId6" xr:uid="{0426F193-9AC7-4452-B2A8-4272D9166DDB}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{F0E61346-5966-4F00-A106-6DD3455432C5}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{57CA751C-D72B-43D5-B30F-9E7EAA9C0D33}"/>
-    <hyperlink ref="B9" r:id="rId9" xr:uid="{C6E2E5B9-230E-4BDD-B6EF-363E112FEB7A}"/>
-    <hyperlink ref="B10" r:id="rId10" xr:uid="{3824E9EE-782B-4600-987C-752701F0EDC0}"/>
-    <hyperlink ref="B11" r:id="rId11" xr:uid="{F9802542-D58B-45F2-AEFE-14238A0C3690}"/>
-    <hyperlink ref="B12" r:id="rId12" xr:uid="{F36CC76E-A532-4940-A525-2312B11035FA}"/>
-    <hyperlink ref="B16" r:id="rId13" xr:uid="{974CF435-8D95-4253-B524-99C113A79017}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{F1DBBBC4-D4AE-4A24-84C4-930351A271E4}"/>
-    <hyperlink ref="B13" r:id="rId15" xr:uid="{96DF2142-916F-4922-973C-0DCDE57DBC5D}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{FEEA667E-34E7-4B57-97A9-6791C3444D45}"/>
-    <hyperlink ref="A31" r:id="rId17" xr:uid="{24724BB0-52E6-406C-82B3-857331DCB1FF}"/>
-    <hyperlink ref="A30" r:id="rId18" xr:uid="{E1DF2E34-0708-4084-846C-DCA80B23651F}"/>
-    <hyperlink ref="A32" r:id="rId19" xr:uid="{83A1977F-805E-4A08-95A2-6B1262525B4B}"/>
-    <hyperlink ref="A34" r:id="rId20" xr:uid="{304C9263-71F9-4EF0-8B3F-FEC8309FC2F5}"/>
-    <hyperlink ref="A33" r:id="rId21" xr:uid="{C9B5CFAE-B124-4D60-99F2-D9032989F82F}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{0426F193-9AC7-4452-B2A8-4272D9166DDB}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{57CA751C-D72B-43D5-B30F-9E7EAA9C0D33}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{F36CC76E-A532-4940-A525-2312B11035FA}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{96DF2142-916F-4922-973C-0DCDE57DBC5D}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{FEEA667E-34E7-4B57-97A9-6791C3444D45}"/>
+    <hyperlink ref="A25" r:id="rId11" xr:uid="{24724BB0-52E6-406C-82B3-857331DCB1FF}"/>
+    <hyperlink ref="A24" r:id="rId12" xr:uid="{E1DF2E34-0708-4084-846C-DCA80B23651F}"/>
+    <hyperlink ref="A26" r:id="rId13" xr:uid="{83A1977F-805E-4A08-95A2-6B1262525B4B}"/>
+    <hyperlink ref="A28" r:id="rId14" xr:uid="{304C9263-71F9-4EF0-8B3F-FEC8309FC2F5}"/>
+    <hyperlink ref="A27" r:id="rId15" xr:uid="{C9B5CFAE-B124-4D60-99F2-D9032989F82F}"/>
+    <hyperlink ref="B8" r:id="rId16" xr:uid="{C6E2E5B9-230E-4BDD-B6EF-363E112FEB7A}"/>
+    <hyperlink ref="B5" r:id="rId17" xr:uid="{3F37C95A-5D92-415C-B06A-1A227D40C459}"/>
+    <hyperlink ref="B13" r:id="rId18" xr:uid="{D4640746-90CC-4EF8-898C-20BF80C2C159}"/>
+    <hyperlink ref="B14" r:id="rId19" xr:uid="{D5A92E1E-D8DF-4EF5-9F5A-400483900332}"/>
+    <hyperlink ref="A29" r:id="rId20" xr:uid="{9C5A32F5-BEB7-40FF-829F-EF743DA17A0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
